--- a/Assets/_TankRes/excel/reward.xlsx
+++ b/Assets/_TankRes/excel/reward.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="prop" sheetId="1" r:id="rId1"/>
+    <sheet name="reward" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>道具类型唯一标识</t>
   </si>
@@ -38,12 +38,18 @@
     <t>资源名称</t>
   </si>
   <si>
+    <t>资源位置</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Path</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -53,37 +59,40 @@
     <t>星级道具：永久提升坦克火力，最高可击穿钢铁墙壁</t>
   </si>
   <si>
-    <t>Assets/Art/texture/reward/RewardStar</t>
+    <t>RewardStar</t>
+  </si>
+  <si>
+    <t>Assets/Art/texture/reward/</t>
   </si>
   <si>
     <t>定时道具：冻结所有敌方坦克行动</t>
   </si>
   <si>
-    <t>Assets/Art/texture/reward/RewardTimer</t>
+    <t>RewardTimer</t>
   </si>
   <si>
     <t>防护道具：为玩家坦克提供短暂无敌状态</t>
   </si>
   <si>
-    <t>Assets/Art/texture/reward/RewardUnbeatable</t>
+    <t>RewardUnbeatable</t>
   </si>
   <si>
     <t>生命道具：增加玩家额外生命值</t>
   </si>
   <si>
-    <t>Assets/Art/texture/reward/RewardLife</t>
+    <t>RewardLife</t>
   </si>
   <si>
     <t>保卫道具：鸟窝砖硬化为墙</t>
   </si>
   <si>
-    <t>Assets/Art/texture/reward/RewardStone</t>
+    <t>RewardStone</t>
   </si>
   <si>
     <t>手雷道具：一键摧毁场上所有敌方坦克</t>
   </si>
   <si>
-    <t>Assets/Art/texture/reward/RewardBomb</t>
+    <t>RewardBomb</t>
   </si>
 </sst>
 </file>
@@ -1073,20 +1082,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.9333333333333" customWidth="1"/>
     <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.9" customHeight="1" spans="1:3">
+    <row r="1" ht="31.9" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,91 +1106,118 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="31.9" customHeight="1" spans="1:3">
+    <row r="2" ht="31.9" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" ht="31.9" customHeight="1" spans="1:3">
+    <row r="3" ht="31.9" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" ht="31.9" customHeight="1" spans="1:3">
+    <row r="4" ht="31.9" customHeight="1" spans="1:4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" ht="31.9" customHeight="1" spans="1:3">
+    <row r="5" ht="31.9" customHeight="1" spans="1:4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" ht="31.9" customHeight="1" spans="1:3">
+    <row r="6" ht="31.9" customHeight="1" spans="1:4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="7" ht="31.9" customHeight="1" spans="1:3">
+    <row r="7" ht="31.9" customHeight="1" spans="1:4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" ht="31.9" customHeight="1" spans="1:3">
+    <row r="8" ht="31.9" customHeight="1" spans="1:4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" ht="31.9" customHeight="1" spans="1:3">
+    <row r="9" ht="31.9" customHeight="1" spans="1:4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_TankRes/excel/reward.xlsx
+++ b/Assets/_TankRes/excel/reward.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>道具类型唯一标识</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>星级道具：永久提升坦克火力，最高可击穿钢铁墙壁</t>
@@ -1082,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1126,9 +1129,7 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1137,87 +1138,99 @@
       </c>
     </row>
     <row r="4" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="31.9" customHeight="1" spans="1:4">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" ht="31.9" customHeight="1" spans="1:4">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="31.9" customHeight="1" spans="1:4">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="31.9" customHeight="1" spans="1:4">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="31.9" customHeight="1" spans="1:4">
       <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="31.9" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_TankRes/excel/reward.xlsx
+++ b/Assets/_TankRes/excel/reward.xlsx
@@ -86,16 +86,16 @@
     <t>RewardLife</t>
   </si>
   <si>
+    <t>手雷道具：一键摧毁场上所有敌方坦克</t>
+  </si>
+  <si>
+    <t>RewardBomb</t>
+  </si>
+  <si>
     <t>保卫道具：鸟窝砖硬化为墙</t>
   </si>
   <si>
     <t>RewardStone</t>
-  </si>
-  <si>
-    <t>手雷道具：一键摧毁场上所有敌方坦克</t>
-  </si>
-  <si>
-    <t>RewardBomb</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/Assets/_TankRes/excel/reward.xlsx
+++ b/Assets/_TankRes/excel/reward.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="reward" sheetId="1" r:id="rId1"/>
+    <sheet name="sidebar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>道具类型唯一标识</t>
   </si>
@@ -96,6 +97,57 @@
   </si>
   <si>
     <t>RewardStone</t>
+  </si>
+  <si>
+    <t>奖励类型</t>
+  </si>
+  <si>
+    <t>奖励数值</t>
+  </si>
+  <si>
+    <t>显示文案</t>
+  </si>
+  <si>
+    <t>RewardType</t>
+  </si>
+  <si>
+    <t>RewardValue</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>AssetName</t>
+  </si>
+  <si>
+    <t>[int]</t>
+  </si>
+  <si>
+    <t>生命+x</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>初始生命值+{0}</t>
+  </si>
+  <si>
+    <t>初始坦克等级+x</t>
+  </si>
+  <si>
+    <t>初始坦克等级+{0}</t>
+  </si>
+  <si>
+    <t>随机奖励道具</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>每关开始获取随机道具</t>
+  </si>
+  <si>
+    <t>RewardRandom</t>
   </si>
 </sst>
 </file>
@@ -1087,14 +1139,14 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.9333333333333" customWidth="1"/>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="1" max="1" width="20.9351851851852" customWidth="1"/>
+    <col min="2" max="2" width="40.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
@@ -1238,4 +1290,161 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.9351851851852" customWidth="1"/>
+    <col min="2" max="2" width="40.6296296296296" customWidth="1"/>
+    <col min="3" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="6" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31.9" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="31.9" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="31.9" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="31.9" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="31.9" customHeight="1" spans="1:6">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="31.9" customHeight="1" spans="1:6">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="31.9" customHeight="1" spans="1:6">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>